--- a/doc/paw/友班API完成进度表-V1.8.xlsx
+++ b/doc/paw/友班API完成进度表-V1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoyiliang/Development/uband/uunodeapi/doc/paw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E004EB-C7D2-DB4F-B2DD-3BEFACDC7D00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73074FC1-9096-2040-A0CA-F6CBD84BBD75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7400" yWindow="-21140" windowWidth="24820" windowHeight="20540" activeTab="2" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" activeTab="2" xr2:uid="{F3024B52-C214-C54B-9291-7F18A16D6793}"/>
   </bookViews>
   <sheets>
     <sheet name="001.“我”个人中心接口" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
